--- a/data/trans_orig/P1411-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1411-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>22556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12997</v>
+        <v>13097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32683</v>
+        <v>34656</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02160692829179868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01245001932825631</v>
+        <v>0.0125455445241661</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03130704235623894</v>
+        <v>0.03319706904041918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -763,19 +763,19 @@
         <v>18261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10602</v>
+        <v>10719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27788</v>
+        <v>28582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01634120030520492</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009487169512177951</v>
+        <v>0.009592552262903703</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02486722666498219</v>
+        <v>0.02557709238153877</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -784,19 +784,19 @@
         <v>40817</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30020</v>
+        <v>28696</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56249</v>
+        <v>55322</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01888448892785722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0138890731923351</v>
+        <v>0.01327639248313157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02602442371488379</v>
+        <v>0.02559555363112855</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>1021379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1011252</v>
+        <v>1009279</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1030938</v>
+        <v>1030838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9783930717082013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9686929576437613</v>
+        <v>0.9668029309595809</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875499806717438</v>
+        <v>0.9874544554758341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1012</v>
@@ -834,19 +834,19 @@
         <v>1099209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1089682</v>
+        <v>1088888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1106868</v>
+        <v>1106751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9836587996947951</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9751327733350178</v>
+        <v>0.9744229076184612</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9905128304878219</v>
+        <v>0.9904074477370962</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1970</v>
@@ -855,19 +855,19 @@
         <v>2120588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2105156</v>
+        <v>2106083</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2131385</v>
+        <v>2132709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811155110721428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9739755762851162</v>
+        <v>0.9744044463688714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861109268076649</v>
+        <v>0.9867236075168684</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>16133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9519</v>
+        <v>8933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26884</v>
+        <v>27838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01651138890863759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009742065790102936</v>
+        <v>0.009142217145762105</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02751482100744351</v>
+        <v>0.02849082504206253</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -980,19 +980,19 @@
         <v>9510</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4964</v>
+        <v>4755</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17961</v>
+        <v>17274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008706011871073685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004544188509326794</v>
+        <v>0.004353434960474907</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01644270229177977</v>
+        <v>0.01581415765465909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1001,19 +1001,19 @@
         <v>25643</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15860</v>
+        <v>16413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38332</v>
+        <v>37274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01239134221404715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007663916265014182</v>
+        <v>0.007931522356963221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01852329932369858</v>
+        <v>0.01801220130672771</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>960940</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>950189</v>
+        <v>949235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>967554</v>
+        <v>968140</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9834886110913624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9724851789925565</v>
+        <v>0.9715091749579374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902579342098971</v>
+        <v>0.9908577828542379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1010</v>
@@ -1051,19 +1051,19 @@
         <v>1082817</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1074366</v>
+        <v>1075053</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1087363</v>
+        <v>1087572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9912939881289263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9835572977082202</v>
+        <v>0.9841858423453409</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.995455811490673</v>
+        <v>0.9956465650395249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1920</v>
@@ -1072,19 +1072,19 @@
         <v>2043757</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2031068</v>
+        <v>2032126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2053540</v>
+        <v>2052987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876086577859529</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9814767006763014</v>
+        <v>0.9819877986932722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923360837349858</v>
+        <v>0.9920684776430369</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>21869</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14147</v>
+        <v>13149</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32488</v>
+        <v>32422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02470698214714969</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01598280983339427</v>
+        <v>0.01485590443130342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03670529516401235</v>
+        <v>0.03663015230632499</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>6146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2022</v>
+        <v>2249</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12326</v>
+        <v>13066</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007017698804934347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00230892394073105</v>
+        <v>0.002567567406951355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01407382472019851</v>
+        <v>0.01491858107220886</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1218,19 +1218,19 @@
         <v>28015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17949</v>
+        <v>18665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39740</v>
+        <v>39773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01590914926141383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01019288035940285</v>
+        <v>0.01059959305479981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02256765540597272</v>
+        <v>0.02258667778506983</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>863246</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>852627</v>
+        <v>852693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>870968</v>
+        <v>871966</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9752930178528503</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9632947048359877</v>
+        <v>0.963369847693675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9840171901666057</v>
+        <v>0.9851440955686965</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>815</v>
@@ -1268,19 +1268,19 @@
         <v>869650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863470</v>
+        <v>862730</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>873774</v>
+        <v>873547</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9929823011950657</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9859261752798015</v>
+        <v>0.9850814189277916</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9976910760592689</v>
+        <v>0.9974324325930487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1624</v>
@@ -1289,19 +1289,19 @@
         <v>1732896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1721171</v>
+        <v>1721138</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1742962</v>
+        <v>1742246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9840908507385862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9774323445940273</v>
+        <v>0.9774133222149302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9898071196405966</v>
+        <v>0.9894004069452002</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>10079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4756</v>
+        <v>4728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18917</v>
+        <v>19323</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02003666655773937</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009454612599304692</v>
+        <v>0.009399161087636807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03760745405128275</v>
+        <v>0.0384132804780158</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1414,19 +1414,19 @@
         <v>4259</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9996</v>
+        <v>10652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009408196333105932</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002340778050938528</v>
+        <v>0.002371333104458288</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0220800069578268</v>
+        <v>0.02352818702339933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1435,19 +1435,19 @@
         <v>14338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8060</v>
+        <v>7801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24104</v>
+        <v>24881</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01500203913554176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008433054292589386</v>
+        <v>0.008161717912242321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02521931931689387</v>
+        <v>0.02603290629707179</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>492944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484106</v>
+        <v>483700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498267</v>
+        <v>498295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9799633334422606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9623925459487171</v>
+        <v>0.9615867195219842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905453874006953</v>
+        <v>0.9906008389123632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>408</v>
@@ -1485,19 +1485,19 @@
         <v>448477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442740</v>
+        <v>442084</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>451676</v>
+        <v>451662</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.990591803666894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9779199930421721</v>
+        <v>0.9764718129766006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9976592219490615</v>
+        <v>0.9976286668955416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>860</v>
@@ -1506,19 +1506,19 @@
         <v>941420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>931654</v>
+        <v>930877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>947698</v>
+        <v>947957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9849979608644582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9747806806831065</v>
+        <v>0.9739670937029281</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9915669457074106</v>
+        <v>0.9918382820877576</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>70636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54009</v>
+        <v>54630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87922</v>
+        <v>88464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02071970118116947</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01584229341314843</v>
+        <v>0.01602450914802542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02578991154898255</v>
+        <v>0.02594889479189101</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1631,19 +1631,19 @@
         <v>38176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26778</v>
+        <v>27651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52954</v>
+        <v>52731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01078930663075949</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007567963712776633</v>
+        <v>0.007814641526817712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01496584538254511</v>
+        <v>0.01490274677487388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1652,19 +1652,19 @@
         <v>108813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89842</v>
+        <v>89753</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132706</v>
+        <v>132725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0156621797491584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01293156675195452</v>
+        <v>0.01291881268906845</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0191013595815374</v>
+        <v>0.01910411688872078</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3338509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3321223</v>
+        <v>3320681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3355136</v>
+        <v>3354515</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9792802988188305</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9742100884510175</v>
+        <v>0.974051105208109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9841577065868515</v>
+        <v>0.9839754908519747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3245</v>
@@ -1702,19 +1702,19 @@
         <v>3500152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3485374</v>
+        <v>3485597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3511550</v>
+        <v>3510677</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9892106933692405</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9850341546174549</v>
+        <v>0.9850972532251261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9924320362872234</v>
+        <v>0.9921853584731823</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6374</v>
@@ -1723,19 +1723,19 @@
         <v>6838661</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6814768</v>
+        <v>6814749</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6857632</v>
+        <v>6857721</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9843378202508416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9808986404184629</v>
+        <v>0.9808958831112792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9870684332480455</v>
+        <v>0.9870811873109315</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>23818</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15800</v>
+        <v>15524</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34153</v>
+        <v>34209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02111502345899096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01400672110742101</v>
+        <v>0.01376277635958276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03027732317643176</v>
+        <v>0.03032685410397499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2088,19 +2088,19 @@
         <v>23746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14718</v>
+        <v>13810</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35047</v>
+        <v>36805</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01885260274457348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01168492071757404</v>
+        <v>0.01096387282392179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02782450250285895</v>
+        <v>0.02922015092387762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2109,19 +2109,19 @@
         <v>47564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35277</v>
+        <v>35666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63544</v>
+        <v>63089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01992147910243743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01477544004031851</v>
+        <v>0.01493830741457398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02661458399373124</v>
+        <v>0.02642399131486546</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>1104179</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1093844</v>
+        <v>1093788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1112197</v>
+        <v>1112473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.978884976541009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9697226768235688</v>
+        <v>0.969673145896025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.985993278892579</v>
+        <v>0.9862372236404171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1168</v>
@@ -2159,19 +2159,19 @@
         <v>1235815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1224514</v>
+        <v>1222756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1244843</v>
+        <v>1245751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9811473972554265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9721754974971409</v>
+        <v>0.9707798490761225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9883150792824259</v>
+        <v>0.9890361271760786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2209</v>
@@ -2180,19 +2180,19 @@
         <v>2339994</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2324014</v>
+        <v>2324469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2352281</v>
+        <v>2351892</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9800785208975625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9733854160062685</v>
+        <v>0.9735760086851345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9852245599596814</v>
+        <v>0.9850616925854259</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>14170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8044</v>
+        <v>8964</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23612</v>
+        <v>23609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01559165116093324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00885051989341791</v>
+        <v>0.009863418128975952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02598055373668953</v>
+        <v>0.02597762063689364</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2305,19 +2305,19 @@
         <v>7306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3227</v>
+        <v>3140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14435</v>
+        <v>14547</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007259421975851959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00320634302116909</v>
+        <v>0.00311997552985149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01434251314017106</v>
+        <v>0.01445368633674332</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -2326,19 +2326,19 @@
         <v>21477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13090</v>
+        <v>13894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30762</v>
+        <v>31685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01121312951417219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006834278158473575</v>
+        <v>0.007254341832370666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01606120834639278</v>
+        <v>0.01654302239140267</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>894655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>885213</v>
+        <v>885216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>900781</v>
+        <v>899861</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9844083488390668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9740194462633105</v>
+        <v>0.9740223793631063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9911494801065821</v>
+        <v>0.990136581871024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>944</v>
@@ -2376,19 +2376,19 @@
         <v>999169</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>992040</v>
+        <v>991928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1003248</v>
+        <v>1003335</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9927405780241481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9856574868598289</v>
+        <v>0.9855463136632567</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967936569788309</v>
+        <v>0.9968800244701486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1810</v>
@@ -2397,19 +2397,19 @@
         <v>1893823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1884538</v>
+        <v>1883615</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1902210</v>
+        <v>1901406</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9887868704858278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9839387916536072</v>
+        <v>0.9834569776085973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9931657218415264</v>
+        <v>0.9927456581676293</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>16915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10211</v>
+        <v>10647</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26822</v>
+        <v>27407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02053389807190458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01239529019446634</v>
+        <v>0.01292463386121828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03256063403548486</v>
+        <v>0.0332701671491612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2522,19 +2522,19 @@
         <v>7733</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3246</v>
+        <v>3297</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15025</v>
+        <v>15720</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0100293880403166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004209208562846747</v>
+        <v>0.004275792111139337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01948674236561256</v>
+        <v>0.02038796728341195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -2543,19 +2543,19 @@
         <v>24648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15584</v>
+        <v>16430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36616</v>
+        <v>35028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01545520328389841</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00977163771615997</v>
+        <v>0.01030232736548033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02295923263552004</v>
+        <v>0.02196373475464952</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>806844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>796937</v>
+        <v>796352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>813548</v>
+        <v>813112</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794661019280955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9674393659645153</v>
+        <v>0.9667298328508392</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876047098055337</v>
+        <v>0.9870753661387818</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>721</v>
@@ -2593,19 +2593,19 @@
         <v>763326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756034</v>
+        <v>755339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767813</v>
+        <v>767762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9899706119596834</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805132576343895</v>
+        <v>0.9796120327165886</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957907914371532</v>
+        <v>0.9957242078888606</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1491</v>
@@ -2614,19 +2614,19 @@
         <v>1570170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1558202</v>
+        <v>1559790</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1579234</v>
+        <v>1578388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9845447967161016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.97704076736448</v>
+        <v>0.9780362652453505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.99022836228384</v>
+        <v>0.9896976726345198</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>9813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4845</v>
+        <v>4787</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21790</v>
+        <v>18496</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01936601034801792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009561873577477023</v>
+        <v>0.009446920201712849</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04300450975142155</v>
+        <v>0.03650193030887537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -2739,19 +2739,19 @@
         <v>5765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2203</v>
+        <v>2079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13228</v>
+        <v>12732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01177301529640505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004498292185103311</v>
+        <v>0.004245668163497949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02701279790982661</v>
+        <v>0.0260007074283859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -2760,19 +2760,19 @@
         <v>15578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9071</v>
+        <v>8409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26371</v>
+        <v>26745</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01563429932777971</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009103869049559683</v>
+        <v>0.008439562715315183</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02646681745394239</v>
+        <v>0.02684126374414075</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>496888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484911</v>
+        <v>488205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501856</v>
+        <v>501914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9806339896519821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9569954902485793</v>
+        <v>0.9634980696911247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990438126422523</v>
+        <v>0.9905530797982873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>450</v>
@@ -2810,19 +2810,19 @@
         <v>483933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>476470</v>
+        <v>476966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>487495</v>
+        <v>487619</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9882269847035949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9729872020901746</v>
+        <v>0.9739992925716141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955017078148968</v>
+        <v>0.9957543318365021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>913</v>
@@ -2831,19 +2831,19 @@
         <v>980820</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>970027</v>
+        <v>969653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>987327</v>
+        <v>987989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843657006722203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9735331825460575</v>
+        <v>0.973158736255859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9908961309504403</v>
+        <v>0.9915604372846848</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>64716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50321</v>
+        <v>49334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82469</v>
+        <v>80809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01921892114667368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01494401457845866</v>
+        <v>0.01465085318045212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02449117185606165</v>
+        <v>0.02399827880538383</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -2956,19 +2956,19 @@
         <v>44551</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31561</v>
+        <v>32579</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60600</v>
+        <v>60547</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01263212769778687</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008948963968217706</v>
+        <v>0.00923749186959529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01718284145126075</v>
+        <v>0.01716776958868575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -2977,19 +2977,19 @@
         <v>109266</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88326</v>
+        <v>89351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130865</v>
+        <v>131638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01584932419425091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01281191974585278</v>
+        <v>0.01296051000620885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01898227185360482</v>
+        <v>0.01909437124181195</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3302566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3284813</v>
+        <v>3286473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3316961</v>
+        <v>3317948</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9807810788533263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9755088281439385</v>
+        <v>0.9760017211946159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850559854215414</v>
+        <v>0.9853491468195479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3283</v>
@@ -3027,19 +3027,19 @@
         <v>3482241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3466192</v>
+        <v>3466245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3495231</v>
+        <v>3494213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9873678723022131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9828171585487394</v>
+        <v>0.9828322304113143</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9910510360317824</v>
+        <v>0.9907625081304047</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6423</v>
@@ -3048,19 +3048,19 @@
         <v>6784809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6763210</v>
+        <v>6762437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6805749</v>
+        <v>6804724</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9841506758057491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9810177281463961</v>
+        <v>0.980905628758188</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9871880802541478</v>
+        <v>0.987039489993791</v>
       </c>
     </row>
     <row r="18">
